--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3158.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3158.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.614929118021786</v>
+        <v>0.8372160792350769</v>
       </c>
       <c r="B1">
-        <v>2.273360547079107</v>
+        <v>1.213238000869751</v>
       </c>
       <c r="C1">
-        <v>2.402268914419202</v>
+        <v>2.371771574020386</v>
       </c>
       <c r="D1">
-        <v>2.900609338671153</v>
+        <v>3.837385416030884</v>
       </c>
       <c r="E1">
-        <v>4.096613510289973</v>
+        <v>1.910194039344788</v>
       </c>
     </row>
   </sheetData>
